--- a/01.VietSoftHRM/VietSoftHRM/bin/Debug/Template/KQ_DGTVNV.xlsx
+++ b/01.VietSoftHRM/VietSoftHRM/bin/Debug/Template/KQ_DGTVNV.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDE7485-8FE9-4281-A697-37F44A937C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,9 +334,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -398,6 +397,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0000CC"/>
+      <name val=".VnTimeH"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="VNI-TimesNewRoman"/>
     </font>
     <font>
@@ -441,25 +446,14 @@
       <name val="VNI-TimesNewRoman"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF0000CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <name val=".VnTimeH"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val=".VnTimeH"/>
     </font>
   </fonts>
   <fills count="2">
@@ -769,9 +763,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -811,9 +805,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -896,14 +891,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
@@ -912,13 +907,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -933,20 +928,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -961,23 +956,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -985,12 +986,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,33 +1004,33 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_biÓu mÉu ®Ò nghÞ cÊp vËt tu" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal_biÓu mÉu ®Ò nghÞ cÊp vËt tu" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1064,13 +1059,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="excel">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="excel"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1138,13 +1127,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1187,13 +1170,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1486,11 +1463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1500,7 +1477,7 @@
     <col min="3" max="3" width="11.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="15.42578125" style="77" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="78" customWidth="1"/>
     <col min="7" max="10" width="5.140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
     <col min="12" max="12" width="15" style="5" customWidth="1"/>
@@ -2330,36 +2307,36 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
     </row>
     <row r="6" spans="1:15" ht="16.5">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" customHeight="1">
       <c r="A7" s="14" t="s">
@@ -2367,7 +2344,7 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="106" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="15"/>
@@ -2390,7 +2367,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="18"/>
@@ -2401,10 +2378,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="16"/>
-      <c r="L8" s="107" t="s">
+      <c r="L8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="19"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" customHeight="1">
       <c r="A9" s="14" t="s">
@@ -2412,28 +2389,28 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="108"/>
+      <c r="K9" s="101"/>
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -2443,301 +2420,301 @@
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:15" ht="40.5" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="101" t="s">
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="101" t="s">
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="103"/>
+      <c r="L11" s="104"/>
     </row>
     <row r="12" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A13" s="23">
+      <c r="A13" s="24">
         <v>1</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="29"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A14" s="30">
+      <c r="A14" s="31">
         <v>2</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="36"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A15" s="30">
+      <c r="A15" s="31">
         <v>3</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="36"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>4</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="36"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A17" s="30">
+      <c r="A17" s="31">
         <v>5</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="36"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A18" s="30">
+      <c r="A18" s="31">
         <v>6</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="36"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="37"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>7</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A20" s="37">
+      <c r="A20" s="38">
         <v>8</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="43"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A21" s="44">
+      <c r="A21" s="45">
         <v>9</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="50"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="85" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="53"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2748,77 +2725,77 @@
     </row>
     <row r="24" spans="1:12" ht="24" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
     </row>
     <row r="25" spans="1:12" ht="24" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
     </row>
     <row r="26" spans="1:12" ht="24" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
     </row>
     <row r="27" spans="1:12" ht="24" customHeight="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
     </row>
     <row r="28" spans="1:12" ht="21" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="55" t="s">
+      <c r="G28" s="59"/>
+      <c r="H28" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4"/>
@@ -2835,60 +2812,60 @@
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="15.75">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="91"/>
     </row>
     <row r="31" spans="1:12" ht="45" customHeight="1">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="59" t="s">
+      <c r="B31" s="93"/>
+      <c r="C31" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93" t="s">
+      <c r="E31" s="93"/>
+      <c r="F31" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="94"/>
-      <c r="H31" s="95" t="s">
+      <c r="G31" s="95"/>
+      <c r="H31" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="96"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="95" t="s">
+      <c r="I31" s="97"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="97"/>
+      <c r="L31" s="98"/>
     </row>
     <row r="32" spans="1:12" ht="39" customHeight="1">
-      <c r="A32" s="60"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="53"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4"/>
@@ -2905,76 +2882,76 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" ht="21" customHeight="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
     </row>
     <row r="36" spans="1:12" ht="21" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
     </row>
     <row r="37" spans="1:12" ht="21" customHeight="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
     </row>
     <row r="38" spans="1:12" ht="21" customHeight="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1">
       <c r="A39" s="4"/>
@@ -2991,39 +2968,39 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="66"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
       </c>
@@ -3031,15 +3008,15 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="66"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="4" t="s">
         <v>52</v>
       </c>
@@ -3047,31 +3024,31 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="56" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="4"/>
@@ -3147,10 +3124,10 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="55"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3220,10 +3197,10 @@
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="55"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -3237,18 +3214,18 @@
       <c r="B56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="81" t="s">
+      <c r="C56" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1">
       <c r="A57" s="4"/>
@@ -3296,10 +3273,10 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="55"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -3308,84 +3285,84 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:12" s="71" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A61" s="69"/>
-      <c r="B61" s="70" t="s">
+    <row r="61" spans="1:12" s="72" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A61" s="70"/>
+      <c r="B61" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-    </row>
-    <row r="62" spans="1:12" s="71" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A62" s="69"/>
-      <c r="B62" s="70" t="s">
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+    </row>
+    <row r="62" spans="1:12" s="72" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A62" s="70"/>
+      <c r="B62" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-    </row>
-    <row r="63" spans="1:12" s="71" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A63" s="69"/>
-      <c r="B63" s="70" t="s">
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+    </row>
+    <row r="63" spans="1:12" s="72" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A63" s="70"/>
+      <c r="B63" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-    </row>
-    <row r="64" spans="1:12" s="71" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A64" s="69"/>
-      <c r="B64" s="70" t="s">
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+    </row>
+    <row r="64" spans="1:12" s="72" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A64" s="70"/>
+      <c r="B64" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="78" t="s">
+      <c r="C64" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="78"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="70"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -3398,7 +3375,7 @@
       <c r="B66" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="71" t="s">
         <v>79</v>
       </c>
       <c r="D66" s="4"/>
@@ -3413,7 +3390,7 @@
       <c r="B67" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="71" t="s">
         <v>80</v>
       </c>
       <c r="D67" s="4"/>
@@ -3428,37 +3405,37 @@
       <c r="B68" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
     </row>
     <row r="69" spans="1:12" ht="13.5" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="70"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -3466,84 +3443,84 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:12" s="71" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A71" s="69"/>
-      <c r="B71" s="70" t="s">
+    <row r="71" spans="1:12" s="72" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A71" s="70"/>
+      <c r="B71" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C71" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="78"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="78"/>
-      <c r="L71" s="78"/>
-    </row>
-    <row r="72" spans="1:12" s="71" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A72" s="69"/>
-      <c r="B72" s="70" t="s">
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+    </row>
+    <row r="72" spans="1:12" s="72" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A72" s="70"/>
+      <c r="B72" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C72" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="78"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="78"/>
-    </row>
-    <row r="73" spans="1:12" s="71" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A73" s="69"/>
-      <c r="B73" s="70" t="s">
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+    </row>
+    <row r="73" spans="1:12" s="72" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A73" s="70"/>
+      <c r="B73" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="78"/>
-    </row>
-    <row r="74" spans="1:12" s="71" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A74" s="69"/>
-      <c r="B74" s="70" t="s">
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+    </row>
+    <row r="74" spans="1:12" s="72" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A74" s="70"/>
+      <c r="B74" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="70"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -3556,22 +3533,22 @@
       <c r="B76" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="C76" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
     </row>
     <row r="77" spans="1:12" ht="13.5" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="70" t="s">
+      <c r="C77" s="71" t="s">
         <v>90</v>
       </c>
       <c r="D77" s="4"/>
@@ -3586,7 +3563,7 @@
       <c r="B78" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="70" t="s">
+      <c r="C78" s="71" t="s">
         <v>91</v>
       </c>
       <c r="D78" s="4"/>
@@ -3601,7 +3578,7 @@
       <c r="B79" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="70" t="s">
+      <c r="C79" s="71" t="s">
         <v>92</v>
       </c>
       <c r="D79" s="4"/>
@@ -3612,11 +3589,11 @@
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="70"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="71"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -3629,7 +3606,7 @@
       <c r="B81" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="70" t="s">
+      <c r="C81" s="71" t="s">
         <v>94</v>
       </c>
       <c r="D81" s="4"/>
@@ -3644,7 +3621,7 @@
       <c r="B82" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="70" t="s">
+      <c r="C82" s="71" t="s">
         <v>95</v>
       </c>
       <c r="D82" s="4"/>
@@ -3659,37 +3636,37 @@
       <c r="B83" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C83" s="70" t="s">
+      <c r="C83" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="73"/>
     </row>
     <row r="84" spans="1:12" ht="13.5" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="70" t="s">
+      <c r="C84" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
     </row>
     <row r="85" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="55"/>
-      <c r="C85" s="70"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="71"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -3702,7 +3679,7 @@
       <c r="B86" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C86" s="70" t="s">
+      <c r="C86" s="71" t="s">
         <v>99</v>
       </c>
       <c r="D86" s="4"/>
@@ -3717,22 +3694,22 @@
       <c r="B87" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C87" s="70" t="s">
+      <c r="C87" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
     </row>
     <row r="88" spans="1:12" ht="13.5" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C88" s="70" t="s">
+      <c r="C88" s="71" t="s">
         <v>101</v>
       </c>
       <c r="D88" s="4"/>
@@ -3747,455 +3724,455 @@
       <c r="B89" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C89" s="70" t="s">
+      <c r="C89" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
     </row>
     <row r="90" spans="1:12" ht="15">
-      <c r="A90" s="58"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="55"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
     </row>
     <row r="91" spans="1:12" ht="15">
-      <c r="A91" s="74"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
     </row>
     <row r="92" spans="1:12" ht="15">
-      <c r="A92" s="74"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
     </row>
     <row r="93" spans="1:12" ht="15">
-      <c r="A93" s="74"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
     </row>
     <row r="94" spans="1:12" ht="15">
-      <c r="A94" s="74"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
     </row>
     <row r="95" spans="1:12" ht="15">
-      <c r="A95" s="74"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="75"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
     </row>
     <row r="96" spans="1:12" ht="15">
-      <c r="A96" s="74"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="74"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="74"/>
-      <c r="K96" s="74"/>
-      <c r="L96" s="74"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="75"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="75"/>
     </row>
     <row r="97" spans="1:12" ht="15">
-      <c r="A97" s="74"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="75"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="74"/>
-      <c r="L97" s="74"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="75"/>
     </row>
     <row r="98" spans="1:12" ht="15">
-      <c r="A98" s="74"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="75"/>
-      <c r="G98" s="74"/>
-      <c r="H98" s="74"/>
-      <c r="I98" s="74"/>
-      <c r="J98" s="74"/>
-      <c r="K98" s="74"/>
-      <c r="L98" s="74"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="75"/>
+      <c r="K98" s="75"/>
+      <c r="L98" s="75"/>
     </row>
     <row r="99" spans="1:12" ht="15">
-      <c r="A99" s="74"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
-      <c r="J99" s="74"/>
-      <c r="K99" s="74"/>
-      <c r="L99" s="74"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
     </row>
     <row r="100" spans="1:12" ht="15">
-      <c r="A100" s="74"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
+      <c r="A100" s="75"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="75"/>
     </row>
     <row r="101" spans="1:12" ht="15">
-      <c r="A101" s="76"/>
-      <c r="B101" s="76"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="76"/>
-      <c r="L101" s="76"/>
+      <c r="A101" s="77"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
     </row>
     <row r="102" spans="1:12" ht="15">
-      <c r="A102" s="76"/>
-      <c r="B102" s="76"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="76"/>
-      <c r="K102" s="76"/>
-      <c r="L102" s="76"/>
+      <c r="A102" s="77"/>
+      <c r="B102" s="77"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
     </row>
     <row r="103" spans="1:12" ht="15">
-      <c r="A103" s="76"/>
-      <c r="B103" s="76"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76"/>
-      <c r="K103" s="76"/>
-      <c r="L103" s="76"/>
+      <c r="A103" s="77"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
     </row>
     <row r="104" spans="1:12" ht="15">
-      <c r="A104" s="76"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="H104" s="76"/>
-      <c r="I104" s="76"/>
-      <c r="J104" s="76"/>
-      <c r="K104" s="76"/>
-      <c r="L104" s="76"/>
+      <c r="A104" s="77"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
     </row>
     <row r="105" spans="1:12" ht="15">
-      <c r="A105" s="76"/>
-      <c r="B105" s="76"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="G105" s="76"/>
-      <c r="H105" s="76"/>
-      <c r="I105" s="76"/>
-      <c r="J105" s="76"/>
-      <c r="K105" s="76"/>
-      <c r="L105" s="76"/>
+      <c r="A105" s="77"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
     </row>
     <row r="106" spans="1:12" ht="15">
-      <c r="A106" s="76"/>
-      <c r="B106" s="76"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
-      <c r="I106" s="76"/>
-      <c r="J106" s="76"/>
-      <c r="K106" s="76"/>
-      <c r="L106" s="76"/>
+      <c r="A106" s="77"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
     </row>
     <row r="107" spans="1:12" ht="15">
-      <c r="A107" s="76"/>
-      <c r="B107" s="76"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="76"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="76"/>
-      <c r="K107" s="76"/>
-      <c r="L107" s="76"/>
+      <c r="A107" s="77"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
     </row>
     <row r="108" spans="1:12" ht="15">
-      <c r="A108" s="76"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="76"/>
-      <c r="K108" s="76"/>
-      <c r="L108" s="76"/>
+      <c r="A108" s="77"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
     </row>
     <row r="109" spans="1:12" ht="15">
-      <c r="A109" s="76"/>
-      <c r="B109" s="76"/>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="76"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="76"/>
+      <c r="A109" s="77"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
     </row>
     <row r="110" spans="1:12" ht="15">
-      <c r="A110" s="76"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="76"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="76"/>
+      <c r="A110" s="77"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
     </row>
     <row r="111" spans="1:12" ht="15">
-      <c r="A111" s="76"/>
-      <c r="B111" s="76"/>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76"/>
-      <c r="I111" s="76"/>
-      <c r="J111" s="76"/>
-      <c r="K111" s="76"/>
-      <c r="L111" s="76"/>
+      <c r="A111" s="77"/>
+      <c r="B111" s="77"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
     </row>
     <row r="112" spans="1:12" ht="15">
-      <c r="A112" s="76"/>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
-      <c r="J112" s="76"/>
-      <c r="K112" s="76"/>
-      <c r="L112" s="76"/>
+      <c r="A112" s="77"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
     </row>
     <row r="113" spans="1:12" ht="15">
-      <c r="A113" s="76"/>
-      <c r="B113" s="76"/>
-      <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
-      <c r="I113" s="76"/>
-      <c r="J113" s="76"/>
-      <c r="K113" s="76"/>
-      <c r="L113" s="76"/>
+      <c r="A113" s="77"/>
+      <c r="B113" s="77"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="77"/>
     </row>
     <row r="114" spans="1:12" ht="15">
-      <c r="A114" s="76"/>
-      <c r="B114" s="76"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="76"/>
-      <c r="I114" s="76"/>
-      <c r="J114" s="76"/>
-      <c r="K114" s="76"/>
-      <c r="L114" s="76"/>
+      <c r="A114" s="77"/>
+      <c r="B114" s="77"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
     </row>
     <row r="115" spans="1:12" ht="15">
-      <c r="A115" s="76"/>
-      <c r="B115" s="76"/>
-      <c r="C115" s="76"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
-      <c r="J115" s="76"/>
-      <c r="K115" s="76"/>
-      <c r="L115" s="76"/>
+      <c r="A115" s="77"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="77"/>
+      <c r="J115" s="77"/>
+      <c r="K115" s="77"/>
+      <c r="L115" s="77"/>
     </row>
     <row r="116" spans="1:12" ht="15">
-      <c r="A116" s="76"/>
-      <c r="B116" s="76"/>
-      <c r="C116" s="76"/>
-      <c r="D116" s="76"/>
-      <c r="E116" s="76"/>
-      <c r="G116" s="76"/>
-      <c r="H116" s="76"/>
-      <c r="I116" s="76"/>
-      <c r="J116" s="76"/>
-      <c r="K116" s="76"/>
-      <c r="L116" s="76"/>
+      <c r="A116" s="77"/>
+      <c r="B116" s="77"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="77"/>
+      <c r="G116" s="77"/>
+      <c r="H116" s="77"/>
+      <c r="I116" s="77"/>
+      <c r="J116" s="77"/>
+      <c r="K116" s="77"/>
+      <c r="L116" s="77"/>
     </row>
     <row r="117" spans="1:12" ht="15">
-      <c r="A117" s="76"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="76"/>
-      <c r="D117" s="76"/>
-      <c r="E117" s="76"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76"/>
-      <c r="I117" s="76"/>
-      <c r="J117" s="76"/>
-      <c r="K117" s="76"/>
-      <c r="L117" s="76"/>
+      <c r="A117" s="77"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="77"/>
+      <c r="J117" s="77"/>
+      <c r="K117" s="77"/>
+      <c r="L117" s="77"/>
     </row>
     <row r="118" spans="1:12" ht="15">
-      <c r="A118" s="76"/>
-      <c r="B118" s="76"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="76"/>
-      <c r="E118" s="76"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
-      <c r="I118" s="76"/>
-      <c r="J118" s="76"/>
-      <c r="K118" s="76"/>
-      <c r="L118" s="76"/>
+      <c r="A118" s="77"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="77"/>
+      <c r="J118" s="77"/>
+      <c r="K118" s="77"/>
+      <c r="L118" s="77"/>
     </row>
     <row r="119" spans="1:12" ht="15">
-      <c r="A119" s="76"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="76"/>
-      <c r="D119" s="76"/>
-      <c r="E119" s="76"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
-      <c r="I119" s="76"/>
-      <c r="J119" s="76"/>
-      <c r="K119" s="76"/>
-      <c r="L119" s="76"/>
+      <c r="A119" s="77"/>
+      <c r="B119" s="77"/>
+      <c r="C119" s="77"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="77"/>
+      <c r="G119" s="77"/>
+      <c r="H119" s="77"/>
+      <c r="I119" s="77"/>
+      <c r="J119" s="77"/>
+      <c r="K119" s="77"/>
+      <c r="L119" s="77"/>
     </row>
     <row r="120" spans="1:12" ht="15">
-      <c r="A120" s="76"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="G120" s="76"/>
-      <c r="H120" s="76"/>
-      <c r="I120" s="76"/>
-      <c r="J120" s="76"/>
-      <c r="K120" s="76"/>
-      <c r="L120" s="76"/>
+      <c r="A120" s="77"/>
+      <c r="B120" s="77"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="77"/>
+      <c r="J120" s="77"/>
+      <c r="K120" s="77"/>
+      <c r="L120" s="77"/>
     </row>
     <row r="121" spans="1:12" ht="15">
-      <c r="A121" s="76"/>
-      <c r="B121" s="76"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="76"/>
-      <c r="I121" s="76"/>
-      <c r="J121" s="76"/>
-      <c r="K121" s="76"/>
-      <c r="L121" s="76"/>
+      <c r="A121" s="77"/>
+      <c r="B121" s="77"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="G121" s="77"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="77"/>
+      <c r="J121" s="77"/>
+      <c r="K121" s="77"/>
+      <c r="L121" s="77"/>
     </row>
     <row r="122" spans="1:12" ht="15">
-      <c r="A122" s="76"/>
-      <c r="B122" s="76"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
-      <c r="G122" s="76"/>
-      <c r="H122" s="76"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="76"/>
-      <c r="K122" s="76"/>
-      <c r="L122" s="76"/>
+      <c r="A122" s="77"/>
+      <c r="B122" s="77"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="77"/>
+      <c r="J122" s="77"/>
+      <c r="K122" s="77"/>
+      <c r="L122" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -4227,7 +4204,7 @@
     <mergeCell ref="C74:L74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>